--- a/ComponentsThrust.xlsx
+++ b/ComponentsThrust.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Components" sheetId="1" r:id="rId1"/>
+    <sheet name="Thrust" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +19,133 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Freewing 70mm 12 Blade 2150Kv Counter Rotating EDF Set For 6S</t>
+  </si>
+  <si>
+    <t>http://www.rc-castle.com/index.php?route=product/product&amp;product_id=6698</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Weight [g]</t>
+  </si>
+  <si>
+    <t>Thrust [g]:</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>EDF1 (motor + fan)</t>
+  </si>
+  <si>
+    <t>EDF2 (motor + fan)</t>
+  </si>
+  <si>
+    <t>Remaining:</t>
+  </si>
+  <si>
+    <t>OrangeRX Receiver</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Freewing 70mm 12 Blade</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Estimated!</t>
+  </si>
+  <si>
+    <t>Freewing/hobbywing 80A ESC</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Total Price [$]</t>
+  </si>
+  <si>
+    <t>Price Each [$]</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>ESC1</t>
+  </si>
+  <si>
+    <t>ESC2</t>
+  </si>
+  <si>
+    <t>Turnigy nano-tech 3300mAh 6S 65~130C Lipo Pack w/XT-90</t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/en_us/turnigy-nano-tech-3300mah-6s-65-130c-lipo-pack-xt-90.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turnigy nano-tech 1550mah 6S 65~130C Lipo Pack </t>
+  </si>
+  <si>
+    <t>https://hobbyking.com/en_us/turnigy-nano-tech-1550mah-6s-65-130c-lipo-pack-450l-heli.html</t>
+  </si>
+  <si>
+    <t>Use ONE</t>
+  </si>
+  <si>
+    <t>Battery1 6S, 1.5AH</t>
+  </si>
+  <si>
+    <t>Battery2 6S, 1.5AH</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,16 +168,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -331,12 +481,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="55.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>84</v>
+      </c>
+      <c r="D2" s="3">
+        <f>B2*C2</f>
+        <v>84</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3">
+        <f>B3*C3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D7" si="0">B4*C4</f>
+        <v>70</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3">
+        <f>SUM(D2:D10)</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>210</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>250</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B2:B13)</f>
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <f>B18-B14</f>
+        <v>876</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>0</formula>
+      <formula>500</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>500</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ComponentsThrust.xlsx
+++ b/ComponentsThrust.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="1" r:id="rId1"/>
     <sheet name="Thrust" sheetId="2" r:id="rId2"/>
+    <sheet name="Thrust (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Component</t>
   </si>
@@ -110,6 +111,9 @@
   </si>
   <si>
     <t>Battery2 6S, 1.5AH</t>
+  </si>
+  <si>
+    <t>Servos</t>
   </si>
 </sst>
 </file>
@@ -117,7 +121,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -176,14 +180,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -564,7 +589,7 @@
         <v>70</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D7" si="0">B4*C4</f>
+        <f t="shared" ref="D4:D5" si="0">B4*C4</f>
         <v>70</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -681,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -811,6 +836,133 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B15">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+      <formula>0</formula>
+      <formula>500</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>250</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B2:B10)</f>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f>B15-B11</f>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B12">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>

--- a/ComponentsThrust.xlsx
+++ b/ComponentsThrust.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Components" sheetId="1" r:id="rId1"/>
     <sheet name="Thrust" sheetId="2" r:id="rId2"/>
     <sheet name="Thrust (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Servos" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Component</t>
   </si>
@@ -114,6 +115,24 @@
   </si>
   <si>
     <t>Servos</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>G-SUN</t>
+  </si>
+  <si>
+    <t>BMS621MG</t>
+  </si>
+  <si>
+    <t>HS-82MG</t>
+  </si>
+  <si>
+    <t>HK-929MG</t>
   </si>
 </sst>
 </file>
@@ -121,7 +140,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -180,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -856,13 +875,13 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -932,7 +951,8 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <f>4*20</f>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -941,7 +961,7 @@
       </c>
       <c r="B11">
         <f>SUM(B2:B10)</f>
-        <v>632</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -950,7 +970,7 @@
       </c>
       <c r="B12">
         <f>B15-B11</f>
-        <v>368</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -976,4 +996,63 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>